--- a/DATA_goal/Junction_Flooding_139.xlsx
+++ b/DATA_goal/Junction_Flooding_139.xlsx
@@ -457,15 +457,15 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>41571.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.41</v>
+        <v>2.84</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.11</v>
+        <v>2.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.62</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>150.56</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.22</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41571.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W3" s="4" t="n">
         <v>0.67</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>6.75</v>
-      </c>
       <c r="X3" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41571.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.83</v>
+        <v>2.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.52</v>
+        <v>3.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>150.6</v>
+        <v>15.06</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.91</v>
+        <v>2.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.19</v>
+        <v>1.92</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.08</v>
+        <v>3.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41571.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.52</v>
+        <v>4.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.17</v>
+        <v>3.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>60.77</v>
+        <v>6.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.98</v>
+        <v>1.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.75</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>236.46</v>
+        <v>23.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.76</v>
+        <v>4.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.03</v>
+        <v>3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.92</v>
+        <v>2.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>55.34</v>
+        <v>5.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41571.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>40.13</v>
+        <v>4.01</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>32.67</v>
+        <v>3.27</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>57.18</v>
+        <v>5.72</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>20.54</v>
+        <v>2.05</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>212.43</v>
+        <v>21.24</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>40.4</v>
+        <v>4.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>27.13</v>
+        <v>2.71</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>27.72</v>
+        <v>2.77</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>52.08</v>
+        <v>5.21</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41571.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.76</v>
+        <v>4.08</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.27</v>
+        <v>3.33</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.65</v>
+        <v>1.46</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>57.77</v>
+        <v>5.78</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.38</v>
+        <v>1.74</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.35</v>
+        <v>1.23</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>215.86</v>
+        <v>21.59</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41.02</v>
+        <v>4.1</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.59</v>
+        <v>2.76</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>28.01</v>
+        <v>2.8</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>52.54</v>
+        <v>5.25</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41571.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41571.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>50.98</v>
+        <v>5.1</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41571.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>23.29</v>
+        <v>2.33</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.45</v>
+        <v>1.74</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>50.79</v>
+        <v>5.08</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>41.71</v>
+        <v>4.17</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>66.19</v>
+        <v>6.62</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>28.27</v>
+        <v>2.83</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.62</v>
+        <v>2.16</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>18.27</v>
+        <v>1.83</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>270.79</v>
+        <v>27.08</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>50.99</v>
+        <v>5.1</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>34.42</v>
+        <v>3.44</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>18.08</v>
+        <v>1.81</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>33.1</v>
+        <v>3.31</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.45</v>
+        <v>1.55</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>21.42</v>
+        <v>2.14</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>60.04</v>
+        <v>6</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_139.xlsx
+++ b/DATA_goal/Junction_Flooding_139.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,28 +450,28 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41571.34027777778</v>
+        <v>44820.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.31</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.39</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.84</v>
+        <v>0.57</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.14</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3</v>
+        <v>0.71</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.22</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>0.28</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41571.34722222222</v>
+        <v>44820.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O3" s="4" t="n">
+      <c r="AB3" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R3" s="4" t="n">
+      <c r="AC3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41571.35416666666</v>
+        <v>44820.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="K4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.06</v>
+        <v>19.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.89</v>
+        <v>3.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.24</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.86</v>
+        <v>2.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.41</v>
+        <v>4.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41571.36111111111</v>
+        <v>44820.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.04</v>
+        <v>1.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.45</v>
+        <v>2.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.62</v>
+        <v>1.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.6</v>
+        <v>0.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.08</v>
+        <v>3.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.48</v>
+        <v>1.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.97</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.6</v>
+        <v>0.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.65</v>
+        <v>12.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.48</v>
+        <v>2.39</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.99</v>
+        <v>1.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.7</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.02</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.53</v>
+        <v>3.25</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41571.36805555555</v>
+        <v>44820.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.84</v>
+        <v>22.24</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.37</v>
+        <v>16.75</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.01</v>
+        <v>47.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.27</v>
+        <v>39.64</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.44</v>
+        <v>17.12</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.72</v>
+        <v>65.58</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.23</v>
+        <v>26.6</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.99</v>
+        <v>12.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.46</v>
+        <v>17.94</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.61</v>
+        <v>19.3</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.71</v>
+        <v>20.57</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.46</v>
+        <v>5.81</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.44</v>
+        <v>17.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.05</v>
+        <v>24.72</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.22</v>
+        <v>14.09</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>21.24</v>
+        <v>255.78</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.04</v>
+        <v>48.07</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.33</v>
+        <v>16.12</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.71</v>
+        <v>32.67</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.42</v>
+        <v>17.01</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.21</v>
+        <v>2.27</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.77</v>
+        <v>32.34</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.18</v>
+        <v>14.06</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.04</v>
+        <v>12.44</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.23</v>
+        <v>14.99</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.69</v>
+        <v>20.3</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.21</v>
+        <v>59.46</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.75</v>
+        <v>8.99</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41571.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41571.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41571.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41571.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41571.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>48.29</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>68.31999999999999</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>257.08</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>62.18</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>20.04</v>
+        <v>19.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_139.xlsx
+++ b/DATA_goal/Junction_Flooding_139.xlsx
@@ -450,10 +450,10 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44820.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44820.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.46</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.23</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.35</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44820.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.6</v>
+        <v>35.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.01</v>
+        <v>30.05</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.76</v>
+        <v>47.62</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.76</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.27</v>
+        <v>192.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.63</v>
+        <v>36.29</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.78</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.85</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.32</v>
+        <v>43.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44820.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.56</v>
+        <v>35.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.41</v>
+        <v>124.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_139.xlsx
+++ b/DATA_goal/Junction_Flooding_139.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44820.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.83</v>
@@ -762,61 +762,61 @@
         <v>7.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.46</v>
+        <v>5.462</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.63</v>
+        <v>13.629</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.77</v>
+        <v>11.765</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.56</v>
+        <v>4.561</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.24</v>
+        <v>17.236</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.65</v>
+        <v>7.649</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.24</v>
+        <v>4.242</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.35</v>
+        <v>5.353</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.943</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>6.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.3</v>
+        <v>2.298</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.88</v>
+        <v>4.881</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.39</v>
+        <v>7.386</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.87</v>
+        <v>3.872</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.34999999999999</v>
+        <v>72.348</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.97</v>
+        <v>13.975</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>5.35</v>
@@ -825,37 +825,37 @@
         <v>9.779999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.69</v>
+        <v>4.688</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.85</v>
+        <v>8.848000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.1</v>
+        <v>4.096</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.79</v>
+        <v>3.795</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.68</v>
+        <v>5.683</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.25</v>
+        <v>6.251</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.35</v>
+        <v>15.345</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.51</v>
+        <v>2.511</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.75</v>
+        <v>5.749</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>17.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.89</v>
+        <v>12.885</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.97</v>
+        <v>35.973</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.05</v>
+        <v>30.052</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.76</v>
+        <v>12.761</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.62</v>
+        <v>47.625</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.07</v>
+        <v>20.068</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.61</v>
+        <v>13.615</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.71</v>
+        <v>14.708</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.82</v>
+        <v>15.822</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.64</v>
+        <v>4.637</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.91</v>
+        <v>12.911</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.76</v>
+        <v>18.762</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.54</v>
+        <v>10.544</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.7</v>
+        <v>192.702</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.29</v>
+        <v>36.291</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.43</v>
+        <v>12.433</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>24.78</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.74</v>
+        <v>12.743</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.724</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.93</v>
+        <v>23.931</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.63</v>
+        <v>10.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.49</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.85</v>
+        <v>11.846</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.47</v>
+        <v>15.472</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.16</v>
+        <v>43.159</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>6.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.97</v>
+        <v>14.967</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.82</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44820.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>65.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>59.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_139.xlsx
+++ b/DATA_goal/Junction_Flooding_139.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -464,7 +464,7 @@
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -967,103 +967,207 @@
         <v>44820.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.22</v>
+        <v>11.224</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.484</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.61</v>
+        <v>23.608</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.74</v>
+        <v>19.735</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.35</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.61</v>
+        <v>35.606</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.17</v>
+        <v>13.174</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.34</v>
+        <v>6.343</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.952</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.66</v>
+        <v>9.662000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.091</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.465</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.36</v>
+        <v>12.363</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.883</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.12</v>
+        <v>124.119</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.94</v>
+        <v>23.938</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.18</v>
+        <v>8.183999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.35</v>
+        <v>16.351</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.368</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.24</v>
+        <v>17.239</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.99</v>
+        <v>6.993</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.26</v>
+        <v>6.264</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.83</v>
+        <v>7.833</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.16</v>
+        <v>10.165</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>32.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.42</v>
+        <v>4.415</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.82</v>
+        <v>9.815</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44820.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>255.78</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_139.xlsx
+++ b/DATA_goal/Junction_Flooding_139.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -464,7 +464,7 @@
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -967,207 +967,103 @@
         <v>44820.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.224</v>
+        <v>11.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.484</v>
+        <v>8.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.608</v>
+        <v>23.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.735</v>
+        <v>19.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.348000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.606</v>
+        <v>35.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.174</v>
+        <v>13.17</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.343</v>
+        <v>6.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.952</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.662000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.411</v>
+        <v>10.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.091</v>
+        <v>3.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.465</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.363</v>
+        <v>12.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.883</v>
+        <v>6.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.119</v>
+        <v>124.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.938</v>
+        <v>23.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.183999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.351</v>
+        <v>16.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.368</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.133</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.239</v>
+        <v>17.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.993</v>
+        <v>6.99</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.264</v>
+        <v>6.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.833</v>
+        <v>7.83</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.165</v>
+        <v>10.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>32.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.415</v>
+        <v>4.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.815</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44820.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>65.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>59.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.83</v>
+        <v>9.82</v>
       </c>
     </row>
   </sheetData>
